--- a/xlsx/a69_f43_bUPPachuca.xlsx
+++ b/xlsx/a69_f43_bUPPachuca.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EVALUACION\EVALUACIÓN\2023\UPP-17-2023-12C\12C.1_1 (Transparencia Institucional)\SIPOT\3ER TRIMESTRE\vobo\cargar a PNT\cargadas vobo 2 (241023)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guada\Desktop\sipot\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF82590E-A002-46D2-8E18-E6E2EB25916F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -221,7 +222,7 @@
     <t>Agustín</t>
   </si>
   <si>
-    <t>Mejía</t>
+    <t>Mejia</t>
   </si>
   <si>
     <t>Cruz</t>
@@ -236,13 +237,13 @@
     <t>Meneses</t>
   </si>
   <si>
-    <t xml:space="preserve">Godínez </t>
+    <t>Godínez</t>
   </si>
   <si>
     <t>Encargado de Despacho de la Secretaría Administrativa</t>
   </si>
   <si>
-    <t>Francisco</t>
+    <t xml:space="preserve">Francisco </t>
   </si>
   <si>
     <t>Marroquín</t>
@@ -257,7 +258,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -271,11 +275,13 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -296,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -319,32 +325,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -380,7 +411,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -392,7 +423,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -439,6 +470,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -474,6 +522,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -625,11 +690,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="G6" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +706,7 @@
     <col min="7" max="7" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -649,119 +714,119 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:10" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -793,35 +858,35 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+    <row r="8" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>2023</v>
       </c>
-      <c r="B8" s="8">
-        <v>45108</v>
-      </c>
-      <c r="C8" s="8">
-        <v>45199</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="B8" s="5">
+        <v>45200</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45291</v>
+      </c>
+      <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="4">
         <v>1</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="8">
-        <v>45209</v>
-      </c>
-      <c r="I8" s="8">
-        <v>45209</v>
-      </c>
-      <c r="J8" s="7"/>
+      <c r="H8" s="5">
+        <v>45301</v>
+      </c>
+      <c r="I8" s="5">
+        <v>45301</v>
+      </c>
+      <c r="J8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -838,11 +903,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,49 +954,49 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E4:E201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E4:E201" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Hidden_1_Tabla_3975144</formula1>
     </dataValidation>
   </dataValidations>
@@ -940,7 +1005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -963,11 +1028,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,49 +1079,49 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E4:E201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E4:E201" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>Hidden_1_Tabla_3975154</formula1>
     </dataValidation>
   </dataValidations>
@@ -1065,7 +1130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1088,11 +1153,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,49 +1204,49 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="11" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E4:E201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E4:E201" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>Hidden_1_Tabla_3975164</formula1>
     </dataValidation>
   </dataValidations>
@@ -1190,7 +1255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
